--- a/pairs.xlsx
+++ b/pairs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="107">
   <si>
     <t xml:space="preserve">before_image</t>
   </si>
@@ -293,6 +293,54 @@
   </si>
   <si>
     <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_00296_LEFT_CC_MASK_1___PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_01617_LEFT_CC_FULL_PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_01617_LEFT_CC_MASK_1___PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_00576_LEFT_MLO_FULL_PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_01865_LEFT_MLO_FULL_PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_00576_LEFT_MLO_MASK_1___PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_01865_LEFT_MLO_MASK_1___PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_01323_LEFT_MLO_FULL_PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_01323_LEFT_MLO_MASK_1___PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_00500_RIGHT_MLO_FULL_PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_00500_RIGHT_MLO_MASK_1___PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_01741_LEFT_MLO_FULL_PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_01741_LEFT_MLO_MASK_1___PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_00516_LEFT_MLO_FULL_PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_00516_LEFT_MLO_MASK_1___PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_01210_RIGHT_MLO_FULL_PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_01210_RIGHT_MLO_MASK_1___PRE.png</t>
   </si>
 </sst>
 </file>
@@ -302,7 +350,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,6 +379,12 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -382,7 +436,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -393,6 +447,14 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -589,13 +651,15 @@
   </sheetPr>
   <dimension ref="A1:R1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q23" activeCellId="0" sqref="Q23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A51" activeCellId="0" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="75.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="1" width="79.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="7.1"/>
   </cols>
@@ -1768,6 +1832,1513 @@
       <c r="Q22" s="1" t="s">
         <v>90</v>
       </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>30766</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>291048</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>846.01</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>46910</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>60524</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>29.02</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>46910</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <v>79322</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <v>69.09</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>46910</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>94920</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>102.34</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>46910</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>96913</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>106.59</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>46910</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>212305</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>352.58</v>
+      </c>
+      <c r="P28" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q28" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="R28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>46910</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>291048</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>520.44</v>
+      </c>
+      <c r="P29" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q29" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="R29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>60524</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <v>79322</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <v>31.06</v>
+      </c>
+      <c r="P30" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q30" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="R30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>60524</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>94920</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>56.83</v>
+      </c>
+      <c r="P31" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q31" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="R31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>60524</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>96913</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>60.12</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q32" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="R32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <v>60524</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <v>212305</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <v>250.78</v>
+      </c>
+      <c r="P33" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q33" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="R33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>60524</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>291048</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>380.88</v>
+      </c>
+      <c r="P34" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q34" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="R34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>79322</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>94920</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>19.66</v>
+      </c>
+      <c r="P35" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q35" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="R35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <v>79322</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>96913</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>22.18</v>
+      </c>
+      <c r="P36" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q36" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="R36" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <v>79322</v>
+      </c>
+      <c r="N37" s="0" t="n">
+        <v>212305</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <v>167.65</v>
+      </c>
+      <c r="P37" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q37" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="R37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <v>79322</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <v>291048</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <v>266.92</v>
+      </c>
+      <c r="P38" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q38" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="R38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M39" s="0" t="n">
+        <v>94920</v>
+      </c>
+      <c r="N39" s="0" t="n">
+        <v>212305</v>
+      </c>
+      <c r="O39" s="0" t="n">
+        <v>123.67</v>
+      </c>
+      <c r="P39" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q39" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="R39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M40" s="0" t="n">
+        <v>94920</v>
+      </c>
+      <c r="N40" s="0" t="n">
+        <v>291048</v>
+      </c>
+      <c r="O40" s="0" t="n">
+        <v>206.62</v>
+      </c>
+      <c r="P40" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q40" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="R40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <v>96913</v>
+      </c>
+      <c r="N41" s="0" t="n">
+        <v>212305</v>
+      </c>
+      <c r="O41" s="0" t="n">
+        <v>119.07</v>
+      </c>
+      <c r="P41" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q41" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="R41" s="0"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="L42" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <v>96913</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <v>291048</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <v>200.32</v>
+      </c>
+      <c r="P42" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q42" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="R42" s="0"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="L43" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M43" s="0" t="n">
+        <v>212305</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <v>291048</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <v>37.09</v>
+      </c>
+      <c r="P43" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q43" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="R43" s="0"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L44" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M44" s="0" t="n">
+        <v>19793</v>
+      </c>
+      <c r="N44" s="0" t="n">
+        <v>28921</v>
+      </c>
+      <c r="O44" s="0" t="n">
+        <v>46.12</v>
+      </c>
+      <c r="P44" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q44" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="R44" s="0"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L45" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M45" s="0" t="n">
+        <v>19793</v>
+      </c>
+      <c r="N45" s="0" t="n">
+        <v>40204</v>
+      </c>
+      <c r="O45" s="0" t="n">
+        <v>103.12</v>
+      </c>
+      <c r="P45" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q45" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="R45" s="0"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L46" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M46" s="0" t="n">
+        <v>19793</v>
+      </c>
+      <c r="N46" s="0" t="n">
+        <v>48736</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <v>146.23</v>
+      </c>
+      <c r="P46" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q46" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="R46" s="0"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="K47" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M47" s="0" t="n">
+        <v>19793</v>
+      </c>
+      <c r="N47" s="0" t="n">
+        <v>77408</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <v>291.09</v>
+      </c>
+      <c r="P47" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q47" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="R47" s="0"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M48" s="0" t="n">
+        <v>19793</v>
+      </c>
+      <c r="N48" s="0" t="n">
+        <v>117839</v>
+      </c>
+      <c r="O48" s="0" t="n">
+        <v>495.36</v>
+      </c>
+      <c r="P48" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q48" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="R48" s="0"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="K49" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L49" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M49" s="0" t="n">
+        <v>19793</v>
+      </c>
+      <c r="N49" s="0" t="n">
+        <v>168491</v>
+      </c>
+      <c r="O49" s="0" t="n">
+        <v>751.27</v>
+      </c>
+      <c r="P49" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q49" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="R49" s="0"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L50" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M50" s="0" t="n">
+        <v>28921</v>
+      </c>
+      <c r="N50" s="0" t="n">
+        <v>40204</v>
+      </c>
+      <c r="O50" s="0" t="n">
+        <v>39.01</v>
+      </c>
+      <c r="P50" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q50" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="R50" s="0"/>
     </row>
     <row r="1045963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1045964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/pairs.xlsx
+++ b/pairs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="137">
   <si>
     <t xml:space="preserve">before_image</t>
   </si>
@@ -341,6 +341,96 @@
   </si>
   <si>
     <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_01210_RIGHT_MLO_MASK_1___PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_01558_RIGHT_MLO_FULL_PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_01833_RIGHT_MLO_FULL_PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_01558_RIGHT_MLO_MASK_1___PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_01833_RIGHT_MLO_MASK_1___PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_01167_LEFT_MLO_FULL_PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_01140_LEFT_MLO_FULL_PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_01167_LEFT_MLO_MASK_1___PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_01140_LEFT_MLO_MASK_1___PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_00875_RIGHT_MLO_FULL_PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_00677_RIGHT_MLO_FULL_PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_00875_RIGHT_MLO_MASK_1___PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_00677_RIGHT_MLO_MASK_1___PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_01235_RIGHT_MLO_FULL_PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_01235_RIGHT_MLO_MASK_1___PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_01044_LEFT_MLO_FULL_PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_01044_LEFT_MLO_MASK_1___PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_01651_RIGHT_MLO_FULL_PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_01651_RIGHT_MLO_MASK_1___PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_01333_LEFT_MLO_FULL_PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_01333_LEFT_MLO_MASK_1___PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_01294_RIGHT_MLO_FULL_PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_01294_RIGHT_MLO_MASK_1___PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_00296_LEFT_MLO_FULL_PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_00296_LEFT_MLO_MASK_1___PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_01617_LEFT_MLO_FULL_PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/MALIGNANT/Mass-Test_P_01617_LEFT_MLO_MASK_1___PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/BENIGN/Mass-Test_P_00980_LEFT_CC_FULL_PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/BENIGN/Mass-Test_P_01254_RIGHT_CC_FULL_PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/BENIGN/Mass-Test_P_00980_LEFT_CC_MASK_1___PRE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbis-ddsm-mass/Test/BENIGN/Mass-Test_P_01254_RIGHT_CC_MASK_1___PRE.png</t>
   </si>
 </sst>
 </file>
@@ -350,7 +440,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,12 +469,6 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -449,7 +533,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -651,15 +735,15 @@
   </sheetPr>
   <dimension ref="A1:R1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A51" activeCellId="0" sqref="A51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q102" activeCellId="0" sqref="Q102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="75.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="1" width="79.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="7.1"/>
   </cols>
@@ -1840,49 +1924,49 @@
       <c r="B23" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" s="4" t="s">
+      <c r="C23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="L23" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="M23" s="1" t="n">
         <v>30766</v>
       </c>
-      <c r="N23" s="0" t="n">
+      <c r="N23" s="1" t="n">
         <v>291048</v>
       </c>
-      <c r="O23" s="0" t="n">
+      <c r="O23" s="1" t="n">
         <v>846.01</v>
       </c>
-      <c r="P23" s="4" t="s">
+      <c r="P23" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="Q23" s="4" t="s">
+      <c r="Q23" s="3" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1893,49 +1977,49 @@
       <c r="B24" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" s="4" t="s">
+      <c r="C24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="L24" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="M24" s="1" t="n">
         <v>46910</v>
       </c>
-      <c r="N24" s="0" t="n">
+      <c r="N24" s="1" t="n">
         <v>60524</v>
       </c>
-      <c r="O24" s="0" t="n">
+      <c r="O24" s="1" t="n">
         <v>29.02</v>
       </c>
-      <c r="P24" s="4" t="s">
+      <c r="P24" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Q24" s="4" t="s">
+      <c r="Q24" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1946,49 +2030,49 @@
       <c r="B25" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" s="4" t="s">
+      <c r="C25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="K25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="L25" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="M25" s="1" t="n">
         <v>46910</v>
       </c>
-      <c r="N25" s="0" t="n">
+      <c r="N25" s="1" t="n">
         <v>79322</v>
       </c>
-      <c r="O25" s="0" t="n">
+      <c r="O25" s="1" t="n">
         <v>69.09</v>
       </c>
-      <c r="P25" s="4" t="s">
+      <c r="P25" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Q25" s="4" t="s">
+      <c r="Q25" s="3" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1999,49 +2083,49 @@
       <c r="B26" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" s="4" t="s">
+      <c r="C26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="K26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="L26" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="M26" s="1" t="n">
         <v>46910</v>
       </c>
-      <c r="N26" s="0" t="n">
+      <c r="N26" s="1" t="n">
         <v>94920</v>
       </c>
-      <c r="O26" s="0" t="n">
+      <c r="O26" s="1" t="n">
         <v>102.34</v>
       </c>
-      <c r="P26" s="4" t="s">
+      <c r="P26" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Q26" s="4" t="s">
+      <c r="Q26" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2052,1293 +2136,4024 @@
       <c r="B27" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J27" s="4" t="s">
+      <c r="C27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="L27" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="M27" s="1" t="n">
         <v>46910</v>
       </c>
-      <c r="N27" s="0" t="n">
+      <c r="N27" s="1" t="n">
         <v>96913</v>
       </c>
-      <c r="O27" s="0" t="n">
+      <c r="O27" s="1" t="n">
         <v>106.59</v>
       </c>
-      <c r="P27" s="4" t="s">
+      <c r="P27" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Q27" s="4" t="s">
+      <c r="Q27" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J28" s="0" t="s">
+      <c r="C28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="0" t="s">
+      <c r="K28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="L28" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M28" s="0" t="n">
+      <c r="M28" s="1" t="n">
         <v>46910</v>
       </c>
-      <c r="N28" s="0" t="n">
+      <c r="N28" s="1" t="n">
         <v>212305</v>
       </c>
-      <c r="O28" s="0" t="n">
+      <c r="O28" s="1" t="n">
         <v>352.58</v>
       </c>
-      <c r="P28" s="0" t="s">
+      <c r="P28" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Q28" s="0" t="s">
+      <c r="Q28" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="R28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J29" s="0" t="s">
+      <c r="C29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K29" s="0" t="s">
+      <c r="K29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="L29" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="M29" s="1" t="n">
         <v>46910</v>
       </c>
-      <c r="N29" s="0" t="n">
+      <c r="N29" s="1" t="n">
         <v>291048</v>
       </c>
-      <c r="O29" s="0" t="n">
+      <c r="O29" s="1" t="n">
         <v>520.44</v>
       </c>
-      <c r="P29" s="0" t="s">
+      <c r="P29" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Q29" s="0" t="s">
+      <c r="Q29" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="R29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" s="0" t="s">
+      <c r="C30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K30" s="0" t="s">
+      <c r="K30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="L30" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M30" s="0" t="n">
+      <c r="M30" s="1" t="n">
         <v>60524</v>
       </c>
-      <c r="N30" s="0" t="n">
+      <c r="N30" s="1" t="n">
         <v>79322</v>
       </c>
-      <c r="O30" s="0" t="n">
+      <c r="O30" s="1" t="n">
         <v>31.06</v>
       </c>
-      <c r="P30" s="0" t="s">
+      <c r="P30" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Q30" s="0" t="s">
+      <c r="Q30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="R30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J31" s="0" t="s">
+      <c r="C31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K31" s="0" t="s">
+      <c r="K31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="L31" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M31" s="0" t="n">
+      <c r="M31" s="1" t="n">
         <v>60524</v>
       </c>
-      <c r="N31" s="0" t="n">
+      <c r="N31" s="1" t="n">
         <v>94920</v>
       </c>
-      <c r="O31" s="0" t="n">
+      <c r="O31" s="1" t="n">
         <v>56.83</v>
       </c>
-      <c r="P31" s="0" t="s">
+      <c r="P31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Q31" s="0" t="s">
+      <c r="Q31" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="R31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J32" s="0" t="s">
+      <c r="C32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K32" s="0" t="s">
+      <c r="K32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L32" s="0" t="n">
+      <c r="L32" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M32" s="0" t="n">
+      <c r="M32" s="1" t="n">
         <v>60524</v>
       </c>
-      <c r="N32" s="0" t="n">
+      <c r="N32" s="1" t="n">
         <v>96913</v>
       </c>
-      <c r="O32" s="0" t="n">
+      <c r="O32" s="1" t="n">
         <v>60.12</v>
       </c>
-      <c r="P32" s="0" t="s">
+      <c r="P32" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Q32" s="0" t="s">
+      <c r="Q32" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="R32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J33" s="0" t="s">
+      <c r="C33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K33" s="0" t="s">
+      <c r="K33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L33" s="0" t="n">
+      <c r="L33" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M33" s="0" t="n">
+      <c r="M33" s="1" t="n">
         <v>60524</v>
       </c>
-      <c r="N33" s="0" t="n">
+      <c r="N33" s="1" t="n">
         <v>212305</v>
       </c>
-      <c r="O33" s="0" t="n">
+      <c r="O33" s="1" t="n">
         <v>250.78</v>
       </c>
-      <c r="P33" s="0" t="s">
+      <c r="P33" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Q33" s="0" t="s">
+      <c r="Q33" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="R33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="I34" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J34" s="0" t="s">
+      <c r="C34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K34" s="0" t="s">
+      <c r="K34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L34" s="0" t="n">
+      <c r="L34" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M34" s="0" t="n">
+      <c r="M34" s="1" t="n">
         <v>60524</v>
       </c>
-      <c r="N34" s="0" t="n">
+      <c r="N34" s="1" t="n">
         <v>291048</v>
       </c>
-      <c r="O34" s="0" t="n">
+      <c r="O34" s="1" t="n">
         <v>380.88</v>
       </c>
-      <c r="P34" s="0" t="s">
+      <c r="P34" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Q34" s="0" t="s">
+      <c r="Q34" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="R34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J35" s="0" t="s">
+      <c r="C35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K35" s="0" t="s">
+      <c r="K35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L35" s="0" t="n">
+      <c r="L35" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M35" s="0" t="n">
+      <c r="M35" s="1" t="n">
         <v>79322</v>
       </c>
-      <c r="N35" s="0" t="n">
+      <c r="N35" s="1" t="n">
         <v>94920</v>
       </c>
-      <c r="O35" s="0" t="n">
+      <c r="O35" s="1" t="n">
         <v>19.66</v>
       </c>
-      <c r="P35" s="0" t="s">
+      <c r="P35" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Q35" s="0" t="s">
+      <c r="Q35" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="R35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="I36" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J36" s="0" t="s">
+      <c r="C36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K36" s="0" t="s">
+      <c r="K36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L36" s="0" t="n">
+      <c r="L36" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M36" s="0" t="n">
+      <c r="M36" s="1" t="n">
         <v>79322</v>
       </c>
-      <c r="N36" s="0" t="n">
+      <c r="N36" s="1" t="n">
         <v>96913</v>
       </c>
-      <c r="O36" s="0" t="n">
+      <c r="O36" s="1" t="n">
         <v>22.18</v>
       </c>
-      <c r="P36" s="0" t="s">
+      <c r="P36" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Q36" s="0" t="s">
+      <c r="Q36" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="R36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J37" s="0" t="s">
+      <c r="C37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K37" s="0" t="s">
+      <c r="K37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L37" s="0" t="n">
+      <c r="L37" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M37" s="0" t="n">
+      <c r="M37" s="1" t="n">
         <v>79322</v>
       </c>
-      <c r="N37" s="0" t="n">
+      <c r="N37" s="1" t="n">
         <v>212305</v>
       </c>
-      <c r="O37" s="0" t="n">
+      <c r="O37" s="1" t="n">
         <v>167.65</v>
       </c>
-      <c r="P37" s="0" t="s">
+      <c r="P37" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Q37" s="0" t="s">
+      <c r="Q37" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="R37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J38" s="0" t="s">
+      <c r="C38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K38" s="0" t="s">
+      <c r="K38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L38" s="0" t="n">
+      <c r="L38" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M38" s="0" t="n">
+      <c r="M38" s="1" t="n">
         <v>79322</v>
       </c>
-      <c r="N38" s="0" t="n">
+      <c r="N38" s="1" t="n">
         <v>291048</v>
       </c>
-      <c r="O38" s="0" t="n">
+      <c r="O38" s="1" t="n">
         <v>266.92</v>
       </c>
-      <c r="P38" s="0" t="s">
+      <c r="P38" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Q38" s="0" t="s">
+      <c r="Q38" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="R38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="I39" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J39" s="0" t="s">
+      <c r="C39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K39" s="0" t="s">
+      <c r="K39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L39" s="0" t="n">
+      <c r="L39" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M39" s="0" t="n">
+      <c r="M39" s="1" t="n">
         <v>94920</v>
       </c>
-      <c r="N39" s="0" t="n">
+      <c r="N39" s="1" t="n">
         <v>212305</v>
       </c>
-      <c r="O39" s="0" t="n">
+      <c r="O39" s="1" t="n">
         <v>123.67</v>
       </c>
-      <c r="P39" s="0" t="s">
+      <c r="P39" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Q39" s="0" t="s">
+      <c r="Q39" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="R39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H40" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="I40" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J40" s="0" t="s">
+      <c r="C40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K40" s="0" t="s">
+      <c r="K40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L40" s="0" t="n">
+      <c r="L40" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M40" s="0" t="n">
+      <c r="M40" s="1" t="n">
         <v>94920</v>
       </c>
-      <c r="N40" s="0" t="n">
+      <c r="N40" s="1" t="n">
         <v>291048</v>
       </c>
-      <c r="O40" s="0" t="n">
+      <c r="O40" s="1" t="n">
         <v>206.62</v>
       </c>
-      <c r="P40" s="0" t="s">
+      <c r="P40" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Q40" s="0" t="s">
+      <c r="Q40" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="R40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H41" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="I41" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J41" s="0" t="s">
+      <c r="C41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K41" s="0" t="s">
+      <c r="K41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L41" s="0" t="n">
+      <c r="L41" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M41" s="0" t="n">
+      <c r="M41" s="1" t="n">
         <v>96913</v>
       </c>
-      <c r="N41" s="0" t="n">
+      <c r="N41" s="1" t="n">
         <v>212305</v>
       </c>
-      <c r="O41" s="0" t="n">
+      <c r="O41" s="1" t="n">
         <v>119.07</v>
       </c>
-      <c r="P41" s="0" t="s">
+      <c r="P41" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="Q41" s="0" t="s">
+      <c r="Q41" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="R41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H42" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="I42" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J42" s="0" t="s">
+      <c r="C42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K42" s="0" t="s">
+      <c r="K42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L42" s="0" t="n">
+      <c r="L42" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M42" s="0" t="n">
+      <c r="M42" s="1" t="n">
         <v>96913</v>
       </c>
-      <c r="N42" s="0" t="n">
+      <c r="N42" s="1" t="n">
         <v>291048</v>
       </c>
-      <c r="O42" s="0" t="n">
+      <c r="O42" s="1" t="n">
         <v>200.32</v>
       </c>
-      <c r="P42" s="0" t="s">
+      <c r="P42" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="Q42" s="0" t="s">
+      <c r="Q42" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="R42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H43" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="I43" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J43" s="0" t="s">
+      <c r="C43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K43" s="0" t="s">
+      <c r="K43" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L43" s="0" t="n">
+      <c r="L43" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M43" s="0" t="n">
+      <c r="M43" s="1" t="n">
         <v>212305</v>
       </c>
-      <c r="N43" s="0" t="n">
+      <c r="N43" s="1" t="n">
         <v>291048</v>
       </c>
-      <c r="O43" s="0" t="n">
+      <c r="O43" s="1" t="n">
         <v>37.09</v>
       </c>
-      <c r="P43" s="0" t="s">
+      <c r="P43" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Q43" s="0" t="s">
+      <c r="Q43" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="R43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H44" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="I44" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J44" s="0" t="s">
+      <c r="C44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J44" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K44" s="0" t="s">
+      <c r="K44" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L44" s="0" t="n">
+      <c r="L44" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="M44" s="0" t="n">
+      <c r="M44" s="1" t="n">
         <v>19793</v>
       </c>
-      <c r="N44" s="0" t="n">
+      <c r="N44" s="1" t="n">
         <v>28921</v>
       </c>
-      <c r="O44" s="0" t="n">
+      <c r="O44" s="1" t="n">
         <v>46.12</v>
       </c>
-      <c r="P44" s="0" t="s">
+      <c r="P44" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Q44" s="0" t="s">
+      <c r="Q44" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="R44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H45" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="I45" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J45" s="0" t="s">
+      <c r="C45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K45" s="0" t="s">
+      <c r="K45" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L45" s="0" t="n">
+      <c r="L45" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="M45" s="0" t="n">
+      <c r="M45" s="1" t="n">
         <v>19793</v>
       </c>
-      <c r="N45" s="0" t="n">
+      <c r="N45" s="1" t="n">
         <v>40204</v>
       </c>
-      <c r="O45" s="0" t="n">
+      <c r="O45" s="1" t="n">
         <v>103.12</v>
       </c>
-      <c r="P45" s="0" t="s">
+      <c r="P45" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Q45" s="0" t="s">
+      <c r="Q45" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="R45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H46" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="I46" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J46" s="0" t="s">
+      <c r="C46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K46" s="0" t="s">
+      <c r="K46" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L46" s="0" t="n">
+      <c r="L46" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="M46" s="0" t="n">
+      <c r="M46" s="1" t="n">
         <v>19793</v>
       </c>
-      <c r="N46" s="0" t="n">
+      <c r="N46" s="1" t="n">
         <v>48736</v>
       </c>
-      <c r="O46" s="0" t="n">
+      <c r="O46" s="1" t="n">
         <v>146.23</v>
       </c>
-      <c r="P46" s="0" t="s">
+      <c r="P46" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Q46" s="0" t="s">
+      <c r="Q46" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="R46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H47" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="I47" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J47" s="0" t="s">
+      <c r="C47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K47" s="0" t="s">
+      <c r="K47" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L47" s="0" t="n">
+      <c r="L47" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="M47" s="0" t="n">
+      <c r="M47" s="1" t="n">
         <v>19793</v>
       </c>
-      <c r="N47" s="0" t="n">
+      <c r="N47" s="1" t="n">
         <v>77408</v>
       </c>
-      <c r="O47" s="0" t="n">
+      <c r="O47" s="1" t="n">
         <v>291.09</v>
       </c>
-      <c r="P47" s="0" t="s">
+      <c r="P47" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Q47" s="0" t="s">
+      <c r="Q47" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="R47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H48" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="I48" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J48" s="0" t="s">
+      <c r="C48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J48" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K48" s="0" t="s">
+      <c r="K48" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L48" s="0" t="n">
+      <c r="L48" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="M48" s="0" t="n">
+      <c r="M48" s="1" t="n">
         <v>19793</v>
       </c>
-      <c r="N48" s="0" t="n">
+      <c r="N48" s="1" t="n">
         <v>117839</v>
       </c>
-      <c r="O48" s="0" t="n">
+      <c r="O48" s="1" t="n">
         <v>495.36</v>
       </c>
-      <c r="P48" s="0" t="s">
+      <c r="P48" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Q48" s="0" t="s">
+      <c r="Q48" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="R48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H49" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="I49" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J49" s="0" t="s">
+      <c r="C49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K49" s="0" t="s">
+      <c r="K49" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L49" s="0" t="n">
+      <c r="L49" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="M49" s="0" t="n">
+      <c r="M49" s="1" t="n">
         <v>19793</v>
       </c>
-      <c r="N49" s="0" t="n">
+      <c r="N49" s="1" t="n">
         <v>168491</v>
       </c>
-      <c r="O49" s="0" t="n">
+      <c r="O49" s="1" t="n">
         <v>751.27</v>
       </c>
-      <c r="P49" s="0" t="s">
+      <c r="P49" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Q49" s="0" t="s">
+      <c r="Q49" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="R49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C50" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H50" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="I50" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J50" s="0" t="s">
+      <c r="C50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J50" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K50" s="0" t="s">
+      <c r="K50" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L50" s="0" t="n">
+      <c r="L50" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="M50" s="0" t="n">
+      <c r="M50" s="1" t="n">
         <v>28921</v>
       </c>
-      <c r="N50" s="0" t="n">
+      <c r="N50" s="1" t="n">
         <v>40204</v>
       </c>
-      <c r="O50" s="0" t="n">
+      <c r="O50" s="1" t="n">
         <v>39.01</v>
       </c>
-      <c r="P50" s="0" t="s">
+      <c r="P50" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Q50" s="0" t="s">
+      <c r="Q50" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="R50" s="0"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L51" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M51" s="0" t="n">
+        <v>28921</v>
+      </c>
+      <c r="N51" s="0" t="n">
+        <v>48736</v>
+      </c>
+      <c r="O51" s="0" t="n">
+        <v>68.51</v>
+      </c>
+      <c r="P51" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q51" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="R51" s="0"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L52" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M52" s="0" t="n">
+        <v>28921</v>
+      </c>
+      <c r="N52" s="0" t="n">
+        <v>77408</v>
+      </c>
+      <c r="O52" s="0" t="n">
+        <v>167.65</v>
+      </c>
+      <c r="P52" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q52" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="R52" s="0"/>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L53" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M53" s="0" t="n">
+        <v>28921</v>
+      </c>
+      <c r="N53" s="0" t="n">
+        <v>117839</v>
+      </c>
+      <c r="O53" s="0" t="n">
+        <v>307.45</v>
+      </c>
+      <c r="P53" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q53" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="R53" s="0"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L54" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M54" s="0" t="n">
+        <v>28921</v>
+      </c>
+      <c r="N54" s="0" t="n">
+        <v>168491</v>
+      </c>
+      <c r="O54" s="0" t="n">
+        <v>482.59</v>
+      </c>
+      <c r="P54" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="R54" s="0"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L55" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M55" s="0" t="n">
+        <v>40204</v>
+      </c>
+      <c r="N55" s="0" t="n">
+        <v>48736</v>
+      </c>
+      <c r="O55" s="0" t="n">
+        <v>21.22</v>
+      </c>
+      <c r="P55" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q55" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="R55" s="0"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L56" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M56" s="0" t="n">
+        <v>40204</v>
+      </c>
+      <c r="N56" s="0" t="n">
+        <v>77408</v>
+      </c>
+      <c r="O56" s="0" t="n">
+        <v>92.54</v>
+      </c>
+      <c r="P56" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q56" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="R56" s="0"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M57" s="0" t="n">
+        <v>40204</v>
+      </c>
+      <c r="N57" s="0" t="n">
+        <v>117839</v>
+      </c>
+      <c r="O57" s="0" t="n">
+        <v>193.1</v>
+      </c>
+      <c r="P57" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q57" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="R57" s="0"/>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M58" s="0" t="n">
+        <v>40204</v>
+      </c>
+      <c r="N58" s="0" t="n">
+        <v>168491</v>
+      </c>
+      <c r="O58" s="0" t="n">
+        <v>319.09</v>
+      </c>
+      <c r="P58" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q58" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="R58" s="0"/>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M59" s="0" t="n">
+        <v>48736</v>
+      </c>
+      <c r="N59" s="0" t="n">
+        <v>77408</v>
+      </c>
+      <c r="O59" s="0" t="n">
+        <v>58.83</v>
+      </c>
+      <c r="P59" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q59" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="R59" s="0"/>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L60" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M60" s="0" t="n">
+        <v>48736</v>
+      </c>
+      <c r="N60" s="0" t="n">
+        <v>117839</v>
+      </c>
+      <c r="O60" s="0" t="n">
+        <v>141.79</v>
+      </c>
+      <c r="P60" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q60" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="R60" s="0"/>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M61" s="0" t="n">
+        <v>48736</v>
+      </c>
+      <c r="N61" s="0" t="n">
+        <v>168491</v>
+      </c>
+      <c r="O61" s="0" t="n">
+        <v>245.72</v>
+      </c>
+      <c r="P61" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q61" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="R61" s="0"/>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L62" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M62" s="0" t="n">
+        <v>77408</v>
+      </c>
+      <c r="N62" s="0" t="n">
+        <v>117839</v>
+      </c>
+      <c r="O62" s="0" t="n">
+        <v>52.23</v>
+      </c>
+      <c r="P62" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q62" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="R62" s="0"/>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L63" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M63" s="0" t="n">
+        <v>77408</v>
+      </c>
+      <c r="N63" s="0" t="n">
+        <v>168491</v>
+      </c>
+      <c r="O63" s="0" t="n">
+        <v>117.67</v>
+      </c>
+      <c r="P63" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q63" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="R63" s="0"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M64" s="0" t="n">
+        <v>117839</v>
+      </c>
+      <c r="N64" s="0" t="n">
+        <v>168491</v>
+      </c>
+      <c r="O64" s="0" t="n">
+        <v>42.98</v>
+      </c>
+      <c r="P64" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q64" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="R64" s="0"/>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L65" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M65" s="0" t="n">
+        <v>90043</v>
+      </c>
+      <c r="N65" s="0" t="n">
+        <v>168651</v>
+      </c>
+      <c r="O65" s="0" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="P65" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q65" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="R65" s="0"/>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L66" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M66" s="0" t="n">
+        <v>31181</v>
+      </c>
+      <c r="N66" s="0" t="n">
+        <v>42340</v>
+      </c>
+      <c r="O66" s="0" t="n">
+        <v>35.79</v>
+      </c>
+      <c r="P66" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q66" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="R66" s="0"/>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L67" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M67" s="0" t="n">
+        <v>43840</v>
+      </c>
+      <c r="N67" s="0" t="n">
+        <v>56206</v>
+      </c>
+      <c r="O67" s="0" t="n">
+        <v>28.21</v>
+      </c>
+      <c r="P67" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q67" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="R67" s="0"/>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L68" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M68" s="0" t="n">
+        <v>43840</v>
+      </c>
+      <c r="N68" s="0" t="n">
+        <v>74582</v>
+      </c>
+      <c r="O68" s="0" t="n">
+        <v>70.12</v>
+      </c>
+      <c r="P68" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q68" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="R68" s="0"/>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L69" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M69" s="0" t="n">
+        <v>43840</v>
+      </c>
+      <c r="N69" s="0" t="n">
+        <v>74920</v>
+      </c>
+      <c r="O69" s="0" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="P69" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q69" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="R69" s="0"/>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L70" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M70" s="0" t="n">
+        <v>43840</v>
+      </c>
+      <c r="N70" s="0" t="n">
+        <v>93279</v>
+      </c>
+      <c r="O70" s="0" t="n">
+        <v>112.77</v>
+      </c>
+      <c r="P70" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q70" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="R70" s="0"/>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L71" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M71" s="0" t="n">
+        <v>43840</v>
+      </c>
+      <c r="N71" s="0" t="n">
+        <v>93712</v>
+      </c>
+      <c r="O71" s="0" t="n">
+        <v>113.76</v>
+      </c>
+      <c r="P71" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q71" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="R71" s="0"/>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L72" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M72" s="0" t="n">
+        <v>43840</v>
+      </c>
+      <c r="N72" s="0" t="n">
+        <v>134950</v>
+      </c>
+      <c r="O72" s="0" t="n">
+        <v>207.82</v>
+      </c>
+      <c r="P72" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q72" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="R72" s="0"/>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L73" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M73" s="0" t="n">
+        <v>43840</v>
+      </c>
+      <c r="N73" s="0" t="n">
+        <v>242601</v>
+      </c>
+      <c r="O73" s="0" t="n">
+        <v>453.38</v>
+      </c>
+      <c r="P73" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q73" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="R73" s="0"/>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L74" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M74" s="0" t="n">
+        <v>43840</v>
+      </c>
+      <c r="N74" s="0" t="n">
+        <v>343537</v>
+      </c>
+      <c r="O74" s="0" t="n">
+        <v>683.62</v>
+      </c>
+      <c r="P74" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q74" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="R74" s="0"/>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L75" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M75" s="0" t="n">
+        <v>56206</v>
+      </c>
+      <c r="N75" s="0" t="n">
+        <v>74582</v>
+      </c>
+      <c r="O75" s="0" t="n">
+        <v>32.69</v>
+      </c>
+      <c r="P75" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q75" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="R75" s="0"/>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L76" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M76" s="0" t="n">
+        <v>56206</v>
+      </c>
+      <c r="N76" s="0" t="n">
+        <v>74920</v>
+      </c>
+      <c r="O76" s="0" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="P76" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q76" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="R76" s="0"/>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L77" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M77" s="0" t="n">
+        <v>56206</v>
+      </c>
+      <c r="N77" s="0" t="n">
+        <v>93279</v>
+      </c>
+      <c r="O77" s="0" t="n">
+        <v>65.96</v>
+      </c>
+      <c r="P77" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q77" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="R77" s="0"/>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L78" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M78" s="0" t="n">
+        <v>56206</v>
+      </c>
+      <c r="N78" s="0" t="n">
+        <v>93712</v>
+      </c>
+      <c r="O78" s="0" t="n">
+        <v>66.73</v>
+      </c>
+      <c r="P78" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q78" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="R78" s="0"/>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L79" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M79" s="0" t="n">
+        <v>56206</v>
+      </c>
+      <c r="N79" s="0" t="n">
+        <v>134950</v>
+      </c>
+      <c r="O79" s="0" t="n">
+        <v>140.1</v>
+      </c>
+      <c r="P79" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q79" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="R79" s="0"/>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L80" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M80" s="0" t="n">
+        <v>56206</v>
+      </c>
+      <c r="N80" s="0" t="n">
+        <v>242601</v>
+      </c>
+      <c r="O80" s="0" t="n">
+        <v>331.63</v>
+      </c>
+      <c r="P80" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q80" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="R80" s="0"/>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L81" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M81" s="0" t="n">
+        <v>56206</v>
+      </c>
+      <c r="N81" s="0" t="n">
+        <v>343537</v>
+      </c>
+      <c r="O81" s="0" t="n">
+        <v>511.21</v>
+      </c>
+      <c r="P81" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q81" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="R81" s="0"/>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L82" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M82" s="0" t="n">
+        <v>74582</v>
+      </c>
+      <c r="N82" s="0" t="n">
+        <v>93279</v>
+      </c>
+      <c r="O82" s="0" t="n">
+        <v>25.07</v>
+      </c>
+      <c r="P82" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q82" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="R82" s="0"/>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L83" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M83" s="0" t="n">
+        <v>74582</v>
+      </c>
+      <c r="N83" s="0" t="n">
+        <v>93712</v>
+      </c>
+      <c r="O83" s="0" t="n">
+        <v>25.65</v>
+      </c>
+      <c r="P83" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q83" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="R83" s="0"/>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L84" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M84" s="0" t="n">
+        <v>74582</v>
+      </c>
+      <c r="N84" s="0" t="n">
+        <v>134950</v>
+      </c>
+      <c r="O84" s="0" t="n">
+        <v>80.94</v>
+      </c>
+      <c r="P84" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q84" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="R84" s="0"/>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K85" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L85" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M85" s="0" t="n">
+        <v>74582</v>
+      </c>
+      <c r="N85" s="0" t="n">
+        <v>242601</v>
+      </c>
+      <c r="O85" s="0" t="n">
+        <v>225.28</v>
+      </c>
+      <c r="P85" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q85" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="R85" s="0"/>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F86" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K86" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L86" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M86" s="0" t="n">
+        <v>74582</v>
+      </c>
+      <c r="N86" s="0" t="n">
+        <v>343537</v>
+      </c>
+      <c r="O86" s="0" t="n">
+        <v>360.62</v>
+      </c>
+      <c r="P86" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q86" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="R86" s="0"/>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L87" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M87" s="0" t="n">
+        <v>74920</v>
+      </c>
+      <c r="N87" s="0" t="n">
+        <v>93279</v>
+      </c>
+      <c r="O87" s="0" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="P87" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q87" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="R87" s="0"/>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F88" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L88" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M88" s="0" t="n">
+        <v>74920</v>
+      </c>
+      <c r="N88" s="0" t="n">
+        <v>93712</v>
+      </c>
+      <c r="O88" s="0" t="n">
+        <v>25.08</v>
+      </c>
+      <c r="P88" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q88" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="R88" s="0"/>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L89" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M89" s="0" t="n">
+        <v>74920</v>
+      </c>
+      <c r="N89" s="0" t="n">
+        <v>134950</v>
+      </c>
+      <c r="O89" s="0" t="n">
+        <v>80.13</v>
+      </c>
+      <c r="P89" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q89" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="R89" s="0"/>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K90" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L90" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M90" s="0" t="n">
+        <v>74920</v>
+      </c>
+      <c r="N90" s="0" t="n">
+        <v>242601</v>
+      </c>
+      <c r="O90" s="0" t="n">
+        <v>223.81</v>
+      </c>
+      <c r="P90" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q90" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="R90" s="0"/>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K91" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L91" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M91" s="0" t="n">
+        <v>74920</v>
+      </c>
+      <c r="N91" s="0" t="n">
+        <v>343537</v>
+      </c>
+      <c r="O91" s="0" t="n">
+        <v>358.54</v>
+      </c>
+      <c r="P91" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q91" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="R91" s="0"/>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K92" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L92" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M92" s="0" t="n">
+        <v>93279</v>
+      </c>
+      <c r="N92" s="0" t="n">
+        <v>134950</v>
+      </c>
+      <c r="O92" s="0" t="n">
+        <v>44.67</v>
+      </c>
+      <c r="P92" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q92" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="R92" s="0"/>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K93" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L93" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M93" s="0" t="n">
+        <v>93279</v>
+      </c>
+      <c r="N93" s="0" t="n">
+        <v>242601</v>
+      </c>
+      <c r="O93" s="0" t="n">
+        <v>160.08</v>
+      </c>
+      <c r="P93" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q93" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="R93" s="0"/>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L94" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M94" s="0" t="n">
+        <v>93279</v>
+      </c>
+      <c r="N94" s="0" t="n">
+        <v>343537</v>
+      </c>
+      <c r="O94" s="0" t="n">
+        <v>268.29</v>
+      </c>
+      <c r="P94" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q94" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="R94" s="0"/>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G95" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L95" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M95" s="0" t="n">
+        <v>93712</v>
+      </c>
+      <c r="N95" s="0" t="n">
+        <v>134950</v>
+      </c>
+      <c r="O95" s="0" t="n">
+        <v>44.01</v>
+      </c>
+      <c r="P95" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q95" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="R95" s="0"/>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K96" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L96" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M96" s="0" t="n">
+        <v>93712</v>
+      </c>
+      <c r="N96" s="0" t="n">
+        <v>242601</v>
+      </c>
+      <c r="O96" s="0" t="n">
+        <v>158.88</v>
+      </c>
+      <c r="P96" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q96" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="R96" s="0"/>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G97" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K97" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L97" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M97" s="0" t="n">
+        <v>93712</v>
+      </c>
+      <c r="N97" s="0" t="n">
+        <v>343537</v>
+      </c>
+      <c r="O97" s="0" t="n">
+        <v>266.59</v>
+      </c>
+      <c r="P97" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q97" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="R97" s="0"/>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G98" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L98" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M98" s="0" t="n">
+        <v>134950</v>
+      </c>
+      <c r="N98" s="0" t="n">
+        <v>242601</v>
+      </c>
+      <c r="O98" s="0" t="n">
+        <v>79.77</v>
+      </c>
+      <c r="P98" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q98" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="R98" s="0"/>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F99" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G99" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K99" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L99" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M99" s="0" t="n">
+        <v>134950</v>
+      </c>
+      <c r="N99" s="0" t="n">
+        <v>343537</v>
+      </c>
+      <c r="O99" s="0" t="n">
+        <v>154.57</v>
+      </c>
+      <c r="P99" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q99" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="R99" s="0"/>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F100" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G100" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K100" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L100" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M100" s="0" t="n">
+        <v>242601</v>
+      </c>
+      <c r="N100" s="0" t="n">
+        <v>343537</v>
+      </c>
+      <c r="O100" s="0" t="n">
+        <v>41.61</v>
+      </c>
+      <c r="P100" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q100" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="R100" s="0"/>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F101" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K101" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L101" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M101" s="0" t="n">
+        <v>21494</v>
+      </c>
+      <c r="N101" s="0" t="n">
+        <v>33737</v>
+      </c>
+      <c r="O101" s="0" t="n">
+        <v>56.96</v>
+      </c>
+      <c r="P101" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q101" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="R101" s="0"/>
     </row>
     <row r="1045963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1045964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
